--- a/数据整理/stocks/A股/创业板/300212-易华录.xlsx
+++ b/数据整理/stocks/A股/创业板/300212-易华录.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.82</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.75</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9704</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.21</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.34</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.21</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.34</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.31</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.39</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4338</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300212-易华录.xlsx
+++ b/数据整理/stocks/A股/创业板/300212-易华录.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6052</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300212-易华录.xlsx
+++ b/数据整理/stocks/A股/创业板/300212-易华录.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006255</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006256</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300212-易华录.xlsx
+++ b/数据整理/stocks/A股/创业板/300212-易华录.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300212-易华录.xlsx
+++ b/数据整理/stocks/A股/创业板/300212-易华录.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.89</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="3">
@@ -1029,14 +1124,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.61</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="4">
@@ -1045,14 +1140,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="5">
@@ -1061,13 +1156,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300212-易华录.xlsx
+++ b/数据整理/stocks/A股/创业板/300212-易华录.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6204</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3.07</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1219,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.89</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="4">
@@ -1140,14 +1235,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.61</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="5">
@@ -1156,14 +1251,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="6">
@@ -1172,13 +1267,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300212-易华录.xlsx
+++ b/数据整理/stocks/A股/创业板/300212-易华录.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,167 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003745</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发多元新兴股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>79.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.9704</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007994</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0356</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007995</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0204</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.03</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -647,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -687,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>55.44</t>
+          <t>37.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>90.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4338</t>
+          <t>1.6204</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -741,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -781,26 +743,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.21</t>
+          <t>45.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6052</t>
+          <t>3.0709</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1005,7 +967,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1045,26 +1007,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.36</t>
+          <t>59.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0709</t>
+          <t>2.6052</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1061,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1139,26 +1101,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37.08</t>
+          <t>55.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.97</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6204</t>
+          <t>2.4338</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1172,128 +1134,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9704</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.07</v>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.43</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.03</v>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300212-易华录.xlsx
+++ b/数据整理/stocks/A股/创业板/300212-易华录.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.62</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>3.07</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.89</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.61</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2.43</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.03</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,35 +656,187 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003745</t>
+          <t>001170</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发多元新兴股票</t>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37.08</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.97</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6204</t>
+          <t>0.0766</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -743,26 +912,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.36</t>
+          <t>37.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>90.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0709</t>
+          <t>1.6204</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -771,6 +940,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -933,100 +1196,6 @@
       </c>
       <c r="H4" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003745</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发多元新兴股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>59.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6052</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1101,22 +1270,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>55.44</t>
+          <t>59.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4338</t>
+          <t>2.6052</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1129,6 +1298,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4338</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
